--- a/translations/handshake/csvContent.xlsx
+++ b/translations/handshake/csvContent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ceref\Documents\GitHub\amazon-hub-support\translations\handshake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1605680B-FBA0-45F1-8885-3825BAC9C58F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C270C7E-CD6B-405B-9AD5-2438B234F76B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8088" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="8085" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="material" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="877">
   <si>
     <t>Tags</t>
   </si>
@@ -730,9 +730,6 @@
     <t>Abholung vom Kunden</t>
   </si>
   <si>
-    <t>Recogida de cliente</t>
-  </si>
-  <si>
     <t>Recolección del cliente</t>
   </si>
   <si>
@@ -754,9 +751,6 @@
     <t>Abholung vom Fahrer</t>
   </si>
   <si>
-    <t>Recogida del conductor</t>
-  </si>
-  <si>
     <t>Recolección del conductor</t>
   </si>
   <si>
@@ -920,9 +914,6 @@
   </si>
   <si>
     <t>تأكد من شحن جهازك واتصاله بشبكة الواي فاي وأنه دائمًا في متناول يدك.</t>
-  </si>
-  <si>
-    <t>Recepción de paquetes del conductor</t>
   </si>
   <si>
     <t>Sürücü Teslimatı</t>
@@ -1355,9 +1346,6 @@
 ------</t>
   </si>
   <si>
-    <t>Recogida del cliente</t>
-  </si>
-  <si>
     <t>Collecte du client</t>
   </si>
   <si>
@@ -2695,6 +2683,9 @@
   </si>
   <si>
     <t>بعد مسح رمز استلام العميل ضوئيًا، انقر فوق الطرد الذي يرغب في رفضه. اتبع التعليمات في التطبيق لمساعدة العميل في فهم الخطوات التالية.</t>
+  </si>
+  <si>
+    <t>Recoleccion del conductor</t>
   </si>
 </sst>
 </file>
@@ -3088,21 +3079,21 @@
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.8984375" customWidth="1"/>
-    <col min="3" max="3" width="43.09765625" customWidth="1"/>
-    <col min="4" max="4" width="38.19921875" customWidth="1"/>
-    <col min="5" max="5" width="39.19921875" customWidth="1"/>
+    <col min="2" max="2" width="50.875" customWidth="1"/>
+    <col min="3" max="3" width="43.125" customWidth="1"/>
+    <col min="4" max="4" width="38.25" customWidth="1"/>
+    <col min="5" max="5" width="183.375" customWidth="1"/>
     <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3143,7 +3134,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3184,7 +3175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3225,7 +3216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3266,7 +3257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3307,7 +3298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -3348,7 +3339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -3389,7 +3380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -3406,31 +3397,31 @@
         <v>234</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -3441,37 +3432,37 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="L9" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -3482,37 +3473,37 @@
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="L10" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -3520,40 +3511,40 @@
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="I11" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="L11" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -3564,37 +3555,37 @@
         <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="H12" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="L12" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -3605,37 +3596,37 @@
         <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="L13" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -3646,37 +3637,37 @@
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="L14" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -3687,37 +3678,37 @@
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="L15" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -3728,37 +3719,37 @@
         <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="J16" s="2" t="s">
+      <c r="L16" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -3799,7 +3790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -3813,7 +3804,7 @@
         <v>226</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>227</v>
@@ -3831,57 +3822,57 @@
         <v>230</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="I19" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="L19" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>310</v>
-      </c>
       <c r="M19" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -3889,40 +3880,40 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="I20" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="L20" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -3933,37 +3924,37 @@
         <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="I21" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="L21" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -3974,37 +3965,37 @@
         <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="I22" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="L22" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -4012,40 +4003,40 @@
         <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="I23" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="L23" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -4053,40 +4044,40 @@
         <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="I24" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="L24" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -4097,37 +4088,37 @@
         <v>47</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="I25" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="L25" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -4138,78 +4129,78 @@
         <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="I26" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="L26" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="F27" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="I27" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="L27" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="M27" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
@@ -4220,78 +4211,78 @@
         <v>52</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="I28" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="L28" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="I29" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="L29" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>387</v>
-      </c>
       <c r="M29" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -4302,78 +4293,78 @@
         <v>55</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="I30" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="L30" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>394</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="L31" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="M31" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>57</v>
       </c>
@@ -4384,37 +4375,37 @@
         <v>58</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="L32" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
@@ -4422,40 +4413,40 @@
         <v>60</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="I33" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="L33" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>422</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
@@ -4463,81 +4454,81 @@
         <v>62</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="I34" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="L34" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="G35" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="K35" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -4551,34 +4542,34 @@
         <v>233</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>438</v>
+        <v>234</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="H36" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4586,40 +4577,40 @@
         <v>67</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="I37" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="L37" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>68</v>
       </c>
@@ -4630,37 +4621,37 @@
         <v>69</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="G38" s="2" t="s">
+      <c r="L38" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
@@ -4671,37 +4662,37 @@
         <v>71</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="I39" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="L39" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>72</v>
       </c>
@@ -4709,40 +4700,40 @@
         <v>73</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="I40" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="L40" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>474</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
@@ -4750,40 +4741,40 @@
         <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="I41" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="J41" t="s">
         <v>477</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="L41" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="J41" t="s">
-        <v>481</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>76</v>
       </c>
@@ -4791,40 +4782,40 @@
         <v>77</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="I42" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="G42" s="2" t="s">
+      <c r="L42" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>78</v>
       </c>
@@ -4832,40 +4823,40 @@
         <v>79</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="I43" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="L43" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>80</v>
       </c>
@@ -4876,37 +4867,37 @@
         <v>81</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="G44" s="2" t="s">
+      <c r="L44" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>506</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>82</v>
       </c>
@@ -4917,37 +4908,37 @@
         <v>83</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="I45" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>464</v>
-      </c>
       <c r="L45" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>84</v>
       </c>
@@ -4958,37 +4949,37 @@
         <v>85</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="I46" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="L46" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>516</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>86</v>
       </c>
@@ -4996,40 +4987,40 @@
         <v>87</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="I47" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G47" s="2" t="s">
+      <c r="L47" s="3" t="s">
         <v>520</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>524</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>88</v>
       </c>
@@ -5040,37 +5031,37 @@
         <v>89</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="G48" s="2" t="s">
+      <c r="L48" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>531</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>90</v>
       </c>
@@ -5078,40 +5069,40 @@
         <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="I49" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="L49" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
@@ -5122,37 +5113,37 @@
         <v>93</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="G50" s="2" t="s">
+      <c r="L50" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>546</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -5160,81 +5151,81 @@
         <v>95</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="I51" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="G51" s="2" t="s">
+      <c r="L51" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>554</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="G52" s="2" t="s">
+      <c r="L52" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>562</v>
-      </c>
       <c r="M52" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>97</v>
       </c>
@@ -5242,40 +5233,40 @@
         <v>98</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="I53" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="G53" s="2" t="s">
+      <c r="L53" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>570</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>99</v>
       </c>
@@ -5286,78 +5277,78 @@
         <v>100</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="G54" s="2" t="s">
+      <c r="L54" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="L55" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H55" s="2" t="s">
+      <c r="M55" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>102</v>
       </c>
@@ -5365,40 +5356,40 @@
         <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="I56" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="L56" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>593</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>104</v>
       </c>
@@ -5409,37 +5400,37 @@
         <v>69</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="L57" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>105</v>
       </c>
@@ -5447,40 +5438,40 @@
         <v>106</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="I58" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="G58" s="2" t="s">
+      <c r="L58" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>601</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>107</v>
       </c>
@@ -5488,81 +5479,81 @@
         <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="I59" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="J59" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="G59" s="2" t="s">
+      <c r="L59" s="3" t="s">
         <v>605</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>609</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="I60" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="L60" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>619</v>
-      </c>
       <c r="M60" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>110</v>
       </c>
@@ -5570,40 +5561,40 @@
         <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="I61" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="G61" s="2" t="s">
+      <c r="L61" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>627</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>112</v>
       </c>
@@ -5611,40 +5602,40 @@
         <v>113</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="I62" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="G62" s="2" t="s">
+      <c r="L62" s="3" t="s">
         <v>631</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>635</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>114</v>
       </c>
@@ -5652,40 +5643,40 @@
         <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="I63" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="K63" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="G63" s="2" t="s">
+      <c r="L63" s="3" t="s">
         <v>639</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>643</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>116</v>
       </c>
@@ -5696,37 +5687,37 @@
         <v>117</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="G64" s="2" t="s">
+      <c r="L64" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>650</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>118</v>
       </c>
@@ -5734,40 +5725,40 @@
         <v>119</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="I65" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="K65" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="G65" s="2" t="s">
+      <c r="L65" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>120</v>
       </c>
@@ -5778,37 +5769,37 @@
         <v>23</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="J66" s="2" t="s">
+      <c r="L66" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>121</v>
       </c>
@@ -5819,37 +5810,37 @@
         <v>122</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="K67" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="G67" s="2" t="s">
+      <c r="L67" s="3" t="s">
         <v>661</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>665</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>123</v>
       </c>
@@ -5860,37 +5851,37 @@
         <v>124</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="K68" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="G68" s="2" t="s">
+      <c r="L68" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>672</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>125</v>
       </c>
@@ -5901,37 +5892,37 @@
         <v>126</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="J69" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="G69" s="2" t="s">
+      <c r="L69" s="3" t="s">
         <v>675</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>679</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>127</v>
       </c>
@@ -5942,37 +5933,37 @@
         <v>128</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="G70" s="2" t="s">
+      <c r="L70" s="3" t="s">
         <v>682</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>686</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>129</v>
       </c>
@@ -5983,37 +5974,37 @@
         <v>130</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="J71" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="K71" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="G71" s="2" t="s">
+      <c r="L71" s="3" t="s">
         <v>689</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>693</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>131</v>
       </c>
@@ -6024,37 +6015,37 @@
         <v>132</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="J72" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="K72" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="G72" s="2" t="s">
+      <c r="L72" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>700</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>133</v>
       </c>
@@ -6065,37 +6056,37 @@
         <v>134</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F73" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L73" s="3" t="s">
         <v>701</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>705</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>135</v>
       </c>
@@ -6106,37 +6097,37 @@
         <v>136</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="J74" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="K74" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="G74" s="2" t="s">
+      <c r="L74" s="3" t="s">
         <v>708</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>712</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>137</v>
       </c>
@@ -6144,40 +6135,40 @@
         <v>138</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="I75" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="J75" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="K75" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="G75" s="2" t="s">
+      <c r="L75" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>720</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>139</v>
       </c>
@@ -6185,40 +6176,40 @@
         <v>140</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="I76" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="J76" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="K76" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="G76" s="2" t="s">
+      <c r="L76" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>728</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>141</v>
       </c>
@@ -6226,40 +6217,40 @@
         <v>142</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="I77" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="J77" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="K77" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="G77" s="2" t="s">
+      <c r="L77" s="3" t="s">
         <v>732</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>736</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>143</v>
       </c>
@@ -6270,37 +6261,37 @@
         <v>144</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="K78" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G78" s="2" t="s">
+      <c r="L78" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>742</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>145</v>
       </c>
@@ -6311,78 +6302,78 @@
         <v>146</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="J79" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="K79" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="G79" s="2" t="s">
+      <c r="L79" s="3" t="s">
         <v>745</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>749</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="H80" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="J80" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="K80" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="L80" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>757</v>
-      </c>
       <c r="M80" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>148</v>
       </c>
@@ -6390,40 +6381,40 @@
         <v>149</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="I81" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="J81" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="K81" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="G81" s="2" t="s">
+      <c r="L81" s="3" t="s">
         <v>761</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>765</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>150</v>
       </c>
@@ -6431,40 +6422,40 @@
         <v>151</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="I82" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="J82" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="K82" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="G82" s="2" t="s">
+      <c r="L82" s="3" t="s">
         <v>769</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>773</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>152</v>
       </c>
@@ -6475,37 +6466,37 @@
         <v>153</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="J83" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="K83" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="G83" s="2" t="s">
+      <c r="L83" s="3" t="s">
         <v>776</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>780</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>154</v>
       </c>
@@ -6513,40 +6504,40 @@
         <v>155</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="I84" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="J84" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="K84" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="L84" s="3" t="s">
         <v>785</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>789</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>156</v>
       </c>
@@ -6557,37 +6548,37 @@
         <v>157</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="I85" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="J85" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="K85" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="L85" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>797</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>158</v>
       </c>
@@ -6598,37 +6589,37 @@
         <v>159</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="I86" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="J86" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="K86" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="L86" s="3" t="s">
         <v>801</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>805</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>160</v>
       </c>
@@ -6639,37 +6630,37 @@
         <v>161</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="J87" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="K87" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="G87" s="2" t="s">
+      <c r="L87" s="3" t="s">
         <v>808</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>812</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>162</v>
       </c>
@@ -6680,37 +6671,37 @@
         <v>163</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="J88" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="K88" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="L88" s="3" t="s">
         <v>815</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>819</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>164</v>
       </c>
@@ -6721,78 +6712,78 @@
         <v>165</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="J89" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="K89" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="G89" s="2" t="s">
+      <c r="L89" s="3" t="s">
         <v>822</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>826</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="J90" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="K90" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="L90" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>757</v>
-      </c>
       <c r="M90" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>167</v>
       </c>
@@ -6800,81 +6791,81 @@
         <v>168</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="I91" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="K91" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="L91" s="3" t="s">
         <v>831</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>835</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="I92" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="J92" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="K92" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="L92" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="H92" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>845</v>
-      </c>
       <c r="M92" s="2" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>170</v>
       </c>
@@ -6882,40 +6873,40 @@
         <v>171</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="I93" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="J93" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="K93" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="L93" s="3" t="s">
         <v>850</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>854</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>172</v>
       </c>
@@ -6926,37 +6917,37 @@
         <v>173</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="I94" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="J94" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="K94" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="L94" s="3" t="s">
         <v>858</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>862</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>174</v>
       </c>
@@ -6964,40 +6955,40 @@
         <v>175</v>
       </c>
       <c r="C95" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="I95" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="J95" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="K95" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="G95" s="4" t="s">
+      <c r="L95" s="5" t="s">
         <v>866</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="L95" s="5" t="s">
-        <v>870</v>
       </c>
       <c r="M95" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>176</v>
       </c>
@@ -7005,34 +6996,34 @@
         <v>177</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="I96" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="J96" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="K96" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="L96" s="3" t="s">
         <v>875</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>177</v>

--- a/translations/handshake/csvContent.xlsx
+++ b/translations/handshake/csvContent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20389"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ceref\Documents\GitHub\amazon-hub-support\translations\handshake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C270C7E-CD6B-405B-9AD5-2438B234F76B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0082C05B-8CAD-46F2-8F15-3868DC5E819D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="8085" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="881">
   <si>
     <t>Tags</t>
   </si>
@@ -1318,34 +1318,6 @@
     <t>امسح كل طرد على حدة</t>
   </si>
   <si>
-    <t>Store packages in a secure and organized place to ensure easy retrieval when the customer arrives.
-------</t>
-  </si>
-  <si>
-    <t>Store parcels in a secure and organized place to ensure easy retrieval when the customer arrives.
-------</t>
-  </si>
-  <si>
-    <t>Lagern Sie die Pakete an einem gesicherten und aufgeräumten Platz ab, damit sie leicht auffindbar sind, wenn der Kunde kommt.
-------</t>
-  </si>
-  <si>
-    <t>Almacena los paquetes en un lugar seguro y organizado para facilitar la recuperación cuando llegue el cliente.
-------</t>
-  </si>
-  <si>
-    <t>ご不明な点がありましたら、ヘルプデスクまでにご連絡ください。
---------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>قم بتخزين الطرود في مكان آمن ومنظم لضمان سهولة استرجاعها عند وصول العميل.
-------</t>
-  </si>
-  <si>
-    <t>Store packages in a secure and organized place to ensure easy retrieval when the customer arrives.
-------</t>
-  </si>
-  <si>
     <t>Collecte du client</t>
   </si>
   <si>
@@ -1863,24 +1835,12 @@
     <t>انقر فوق الإشعار وافحص الطرود. تحتاج إلى مسح الطرود منتهية الصلاحية في غضون ساعتين بعد ظهور الإشعار. انتظر الآن حتى يصل السائق (عادة من يوم إلى يومين).</t>
   </si>
   <si>
-    <t>If a driver arrives, select “Driver pickup” from the home screen. Find the packages named on the list and hand them to the driver.
-------</t>
-  </si>
-  <si>
-    <t>If a driver arrives, select “Driver pickup” from the home screen. Find the parcels named on the list and hand them to the driver.
-------</t>
-  </si>
-  <si>
     <t>Wenn ein Fahrer kommt, wählen Sie „Abholung durch Fahrer“ auf dem Startbildschirm. Suchen Sie die auf der Liste aufgeführten Pakete und geben Sie diese dem Fahrer.</t>
   </si>
   <si>
     <t>Cuando llega un conductor, elige «Recogida del conductor» en la pantalla de inicio. Encuentra los paquetes que constan en la lista y entrégalos al conductor.</t>
   </si>
   <si>
-    <t>Cuando llega un conductor, elige «Recolección del conductor» en la pantalla de inicio. Encuentra los paquetes que constan en la lista y entrégalos al conductor.
-------</t>
-  </si>
-  <si>
     <t>Se arriva un conducente, seleziona “Ritiro da parte del conducente” dalla schermata principale. Trova i pacchi indicati nell’elenco e consegnali al conducente.</t>
   </si>
   <si>
@@ -1891,10 +1851,6 @@
   </si>
   <si>
     <t>Sürücü gelince ana ekrandan “Driver pickup” (Sürücünün teslim alması) seçimini yapın. Listede adı geçen paketleri bulun ve sürücüye verin.</t>
-  </si>
-  <si>
-    <t>إذا وصل السائق، اختر "استلام السائق" من الشاشة الرئيسية. ابحث عن الطرود المذكورة في القائمة وسلمها للسائق.
-------</t>
   </si>
   <si>
     <t>What if the parcel is missing?</t>
@@ -2685,7 +2641,54 @@
     <t>بعد مسح رمز استلام العميل ضوئيًا، انقر فوق الطرد الذي يرغب في رفضه. اتبع التعليمات في التطبيق لمساعدة العميل في فهم الخطوات التالية.</t>
   </si>
   <si>
-    <t>Recoleccion del conductor</t>
+    <t>Recogida de cliente</t>
+  </si>
+  <si>
+    <t>Recogida del conductor</t>
+  </si>
+  <si>
+    <t>Recepción de paquetes del conductor</t>
+  </si>
+  <si>
+    <t>ご不明な点がありましたら、ヘルプデスクまでにご連絡ください。</t>
+  </si>
+  <si>
+    <t>Recogida del cliente</t>
+  </si>
+  <si>
+    <t>If a driver arrives, select “Driver pickup” from the home screen. Find the packages named on the list and hand them to the driver.</t>
+  </si>
+  <si>
+    <t>If a driver arrives, select “Driver pickup” from the home screen. Find the parcels named on the list and hand them to the driver.</t>
+  </si>
+  <si>
+    <t>Cuando llega un conductor, elige «Recolección del conductor» en la pantalla de inicio. Encuentra los paquetes que constan en la lista y entrégalos al conductor.</t>
+  </si>
+  <si>
+    <t>إذا وصل السائق، اختر "استلام السائق" من الشاشة الرئيسية. ابحث عن الطرود المذكورة في القائمة وسلمها للسائق.</t>
+  </si>
+  <si>
+    <t>إذا أمكن، لا تقم بمسح الطرد التالف ضوئيًا وارفضه عن طريق إعادتها إلى السائق. سيعيد السائق الطرد إلى المستودع وسيحصل العميل على استرداد لأمواله.</t>
+  </si>
+  <si>
+    <t>&lt;&lt; *LINK* Content in Arabic HERE &gt;&gt;
+In-Store Support</t>
+  </si>
+  <si>
+    <t>&lt;&lt;هام: لا ينطبق القسم التالي المتعلق بتسليم الطرود بواسطة طرف ثالث في المملكة العربية السعودية ، الإمارات العربية المتحدة ،المكسيك، اليابان، ألمانيا، المملكة المتحدة&gt;&gt; 
+ماذا إذا لم يكن السائق من أمازون؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store packages in a secure and organized place to ensure easy retrieval when the customer arrives. </t>
+  </si>
+  <si>
+    <t>إذا وصل السائق، اختر "استلام السائق" من الشاشة الرئيسية. ابحث عن الطرود المذكورة في القائمة وسلمها للسائق</t>
+  </si>
+  <si>
+    <t>SAEN</t>
+  </si>
+  <si>
+    <t>AE</t>
   </si>
 </sst>
 </file>
@@ -2721,20 +2724,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3075,11 +3072,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3093,7 +3090,7 @@
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3133,3899 +3130,4475 @@
       <c r="M1" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="126" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>191</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>192</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>193</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
         <v>194</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="O2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>196</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>197</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>198</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>199</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>199</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>200</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>201</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" t="s">
         <v>202</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>206</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>207</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>208</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>208</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" t="s">
         <v>209</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" t="s">
         <v>210</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>211</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" t="s">
+        <v>211</v>
+      </c>
+      <c r="N4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>213</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>214</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>215</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>215</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>216</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" t="s">
         <v>218</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" t="s">
+        <v>218</v>
+      </c>
+      <c r="N5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>219</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>220</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>220</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>221</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>222</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s">
         <v>222</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" t="s">
         <v>223</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s">
         <v>224</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" t="s">
+        <v>225</v>
+      </c>
+      <c r="N6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>226</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>227</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>227</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>228</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>229</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s">
         <v>231</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" t="s">
         <v>232</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" t="s">
+        <v>232</v>
+      </c>
+      <c r="N7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>233</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
+        <v>865</v>
+      </c>
+      <c r="F8" t="s">
         <v>234</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>235</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s">
         <v>236</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s">
         <v>236</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" t="s">
         <v>237</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" t="s">
         <v>238</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" t="s">
         <v>239</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" t="s">
+        <v>239</v>
+      </c>
+      <c r="N8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" t="s">
+        <v>866</v>
+      </c>
+      <c r="F9" t="s">
         <v>241</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>242</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s">
         <v>243</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s">
         <v>243</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" t="s">
         <v>244</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" t="s">
         <v>245</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" t="s">
         <v>246</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" t="s">
+        <v>246</v>
+      </c>
+      <c r="N9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>247</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>248</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>248</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>249</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s">
         <v>250</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s">
         <v>250</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" t="s">
         <v>251</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" t="s">
         <v>252</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" t="s">
         <v>253</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" t="s">
+        <v>253</v>
+      </c>
+      <c r="N10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>255</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>257</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>258</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s">
         <v>259</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" t="s">
         <v>259</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" t="s">
         <v>260</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" t="s">
         <v>261</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" t="s">
         <v>262</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" t="s">
+        <v>262</v>
+      </c>
+      <c r="N11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>263</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>264</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>264</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>265</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s">
         <v>265</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" t="s">
         <v>265</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" t="s">
         <v>265</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" t="s">
         <v>266</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" t="s">
         <v>267</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" t="s">
+        <v>267</v>
+      </c>
+      <c r="N12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>268</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>269</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>269</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>270</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s">
         <v>271</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" t="s">
         <v>271</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" t="s">
         <v>272</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" t="s">
         <v>273</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" t="s">
         <v>274</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" t="s">
+        <v>274</v>
+      </c>
+      <c r="N13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>275</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>276</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>276</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>277</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" t="s">
         <v>278</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" t="s">
         <v>278</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" t="s">
         <v>279</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" t="s">
         <v>280</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" t="s">
         <v>281</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" t="s">
+        <v>281</v>
+      </c>
+      <c r="N14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>282</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>283</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>283</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>284</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" t="s">
         <v>285</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" t="s">
         <v>285</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" t="s">
         <v>286</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" t="s">
         <v>287</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" t="s">
         <v>288</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" t="s">
+        <v>288</v>
+      </c>
+      <c r="N15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>289</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>290</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>290</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>291</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" t="s">
         <v>292</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" t="s">
         <v>292</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" t="s">
         <v>293</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" t="s">
         <v>294</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" t="s">
         <v>295</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" t="s">
+        <v>295</v>
+      </c>
+      <c r="N16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>220</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>220</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>221</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s">
         <v>222</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" t="s">
         <v>222</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" t="s">
         <v>223</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" t="s">
         <v>224</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" t="s">
         <v>225</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" t="s">
+        <v>225</v>
+      </c>
+      <c r="N17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
+        <v>867</v>
+      </c>
+      <c r="F18" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>228</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s">
         <v>229</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" t="s">
         <v>229</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" t="s">
         <v>230</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" t="s">
         <v>296</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" t="s">
         <v>297</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" t="s">
+        <v>297</v>
+      </c>
+      <c r="N18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>298</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>299</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>300</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
         <v>301</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>302</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>303</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" t="s">
         <v>304</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" t="s">
         <v>304</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" t="s">
         <v>305</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" t="s">
         <v>306</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" t="s">
         <v>307</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" t="s">
+        <v>307</v>
+      </c>
+      <c r="N19" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>308</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>309</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>310</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" t="s">
         <v>310</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>311</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" t="s">
         <v>312</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" t="s">
         <v>312</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" t="s">
         <v>313</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" t="s">
         <v>314</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" t="s">
         <v>315</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" t="s">
+        <v>315</v>
+      </c>
+      <c r="N20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>317</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s">
         <v>318</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>319</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" t="s">
         <v>320</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" t="s">
         <v>320</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" t="s">
         <v>321</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" t="s">
         <v>322</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" t="s">
         <v>323</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" t="s">
+        <v>323</v>
+      </c>
+      <c r="N21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>324</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
         <v>325</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" t="s">
         <v>325</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" t="s">
         <v>326</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" t="s">
         <v>327</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" t="s">
         <v>327</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" t="s">
         <v>328</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" t="s">
         <v>329</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" t="s">
         <v>330</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" t="s">
+        <v>330</v>
+      </c>
+      <c r="N22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>331</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>332</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" t="s">
         <v>333</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" t="s">
         <v>333</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" t="s">
         <v>334</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" t="s">
         <v>335</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" t="s">
         <v>335</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" t="s">
         <v>336</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" t="s">
         <v>337</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" t="s">
         <v>338</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" t="s">
+        <v>338</v>
+      </c>
+      <c r="N23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>339</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>340</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" t="s">
         <v>341</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" t="s">
         <v>341</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" t="s">
         <v>342</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" t="s">
         <v>343</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" t="s">
         <v>343</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" t="s">
         <v>344</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" t="s">
         <v>345</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" t="s">
         <v>346</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" t="s">
+        <v>346</v>
+      </c>
+      <c r="N24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>347</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" t="s">
         <v>348</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" t="s">
         <v>348</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" t="s">
         <v>349</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" t="s">
         <v>350</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" t="s">
         <v>350</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" t="s">
         <v>351</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" t="s">
         <v>352</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" t="s">
         <v>353</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" t="s">
+        <v>353</v>
+      </c>
+      <c r="N25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>354</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" t="s">
         <v>355</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
         <v>355</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" t="s">
         <v>356</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" t="s">
         <v>357</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" t="s">
         <v>357</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" t="s">
         <v>358</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" t="s">
         <v>359</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" t="s">
         <v>360</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" t="s">
+        <v>360</v>
+      </c>
+      <c r="N26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>361</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>362</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>363</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" t="s">
         <v>364</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" t="s">
         <v>364</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" t="s">
         <v>365</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" t="s">
         <v>366</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" t="s">
         <v>366</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" t="s">
         <v>367</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" t="s">
         <v>368</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" t="s">
         <v>369</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" t="s">
+        <v>369</v>
+      </c>
+      <c r="N27" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>370</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" t="s">
         <v>371</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" t="s">
         <v>371</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" t="s">
         <v>372</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" t="s">
         <v>373</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" t="s">
         <v>373</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" t="s">
         <v>374</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" t="s">
         <v>375</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" t="s">
         <v>376</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" t="s">
+        <v>376</v>
+      </c>
+      <c r="N28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>377</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>377</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>378</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" t="s">
         <v>379</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" t="s">
         <v>379</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" t="s">
         <v>380</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" t="s">
         <v>381</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" t="s">
         <v>381</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" t="s">
         <v>382</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" t="s">
         <v>383</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" t="s">
         <v>384</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" t="s">
+        <v>384</v>
+      </c>
+      <c r="N29" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>385</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" t="s">
         <v>386</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" t="s">
         <v>386</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" t="s">
         <v>387</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" t="s">
         <v>388</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" t="s">
         <v>388</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" t="s">
         <v>389</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" t="s">
         <v>390</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" t="s">
         <v>391</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" t="s">
+        <v>391</v>
+      </c>
+      <c r="N30" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="330.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" t="s">
         <v>394</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" t="s">
         <v>396</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" t="s">
         <v>397</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" t="s">
         <v>398</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" t="s">
         <v>400</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="N31" s="3" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O31" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>403</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" t="s">
         <v>404</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" t="s">
         <v>405</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" t="s">
         <v>406</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" t="s">
         <v>407</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" t="s">
         <v>408</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" t="s">
         <v>409</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" t="s">
         <v>410</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" t="s">
         <v>411</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" t="s">
+        <v>411</v>
+      </c>
+      <c r="N32" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>412</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>413</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" t="s">
         <v>414</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" t="s">
         <v>414</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" t="s">
         <v>415</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" t="s">
         <v>416</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" t="s">
         <v>416</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" t="s">
         <v>417</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" t="s">
         <v>418</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" t="s">
         <v>419</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M33" t="s">
+        <v>419</v>
+      </c>
+      <c r="N33" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>420</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>421</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" t="s">
         <v>422</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" t="s">
         <v>422</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" t="s">
         <v>423</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" t="s">
         <v>424</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" t="s">
         <v>424</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" t="s">
         <v>425</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" t="s">
         <v>426</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" t="s">
         <v>427</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34" t="s">
+        <v>427</v>
+      </c>
+      <c r="N34" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>339</v>
+      </c>
+      <c r="D35" t="s">
+        <v>340</v>
+      </c>
+      <c r="E35" t="s">
         <v>341</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="F35" t="s">
+        <v>341</v>
+      </c>
+      <c r="G35" t="s">
         <v>342</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" t="s">
         <v>343</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" t="s">
         <v>343</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" t="s">
+        <v>868</v>
+      </c>
+      <c r="K35" t="s">
         <v>345</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>346</v>
+      </c>
+      <c r="M35" t="s">
+        <v>346</v>
+      </c>
+      <c r="N35" t="s">
+        <v>877</v>
+      </c>
+      <c r="O35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>233</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" t="s">
+        <v>869</v>
+      </c>
+      <c r="F36" t="s">
         <v>234</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" t="s">
         <v>235</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>435</v>
+      <c r="H36" t="s">
+        <v>428</v>
+      </c>
+      <c r="I36" t="s">
+        <v>428</v>
       </c>
       <c r="J36" t="s">
         <v>237</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="M36" s="2" t="s">
+      <c r="K36" t="s">
+        <v>429</v>
+      </c>
+      <c r="L36" t="s">
+        <v>430</v>
+      </c>
+      <c r="M36" t="s">
+        <v>430</v>
+      </c>
+      <c r="N36" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
+        <v>431</v>
+      </c>
+      <c r="D37" t="s">
+        <v>432</v>
+      </c>
+      <c r="E37" t="s">
+        <v>433</v>
+      </c>
+      <c r="F37" t="s">
+        <v>434</v>
+      </c>
+      <c r="G37" t="s">
+        <v>435</v>
+      </c>
+      <c r="H37" t="s">
+        <v>436</v>
+      </c>
+      <c r="I37" t="s">
+        <v>436</v>
+      </c>
+      <c r="J37" t="s">
+        <v>437</v>
+      </c>
+      <c r="K37" t="s">
         <v>438</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="L37" t="s">
         <v>439</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="M37" s="2" t="s">
+      <c r="M37" t="s">
+        <v>439</v>
+      </c>
+      <c r="N37" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="M38" s="2" t="s">
+      <c r="D38" t="s">
+        <v>440</v>
+      </c>
+      <c r="E38" t="s">
+        <v>441</v>
+      </c>
+      <c r="F38" t="s">
+        <v>441</v>
+      </c>
+      <c r="G38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I38" t="s">
+        <v>443</v>
+      </c>
+      <c r="J38" t="s">
+        <v>444</v>
+      </c>
+      <c r="K38" t="s">
+        <v>445</v>
+      </c>
+      <c r="L38" t="s">
+        <v>446</v>
+      </c>
+      <c r="M38" t="s">
+        <v>446</v>
+      </c>
+      <c r="N38" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
+        <v>447</v>
+      </c>
+      <c r="E39" t="s">
+        <v>448</v>
+      </c>
+      <c r="F39" t="s">
+        <v>449</v>
+      </c>
+      <c r="G39" t="s">
+        <v>450</v>
+      </c>
+      <c r="H39" t="s">
+        <v>451</v>
+      </c>
+      <c r="I39" t="s">
+        <v>451</v>
+      </c>
+      <c r="J39" t="s">
+        <v>452</v>
+      </c>
+      <c r="K39" t="s">
+        <v>453</v>
+      </c>
+      <c r="L39" t="s">
         <v>454</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="M39" s="2" t="s">
+      <c r="M39" t="s">
+        <v>454</v>
+      </c>
+      <c r="N39" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
+        <v>455</v>
+      </c>
+      <c r="D40" t="s">
+        <v>456</v>
+      </c>
+      <c r="E40" t="s">
+        <v>457</v>
+      </c>
+      <c r="F40" t="s">
+        <v>458</v>
+      </c>
+      <c r="G40" t="s">
+        <v>459</v>
+      </c>
+      <c r="H40" t="s">
+        <v>460</v>
+      </c>
+      <c r="I40" t="s">
+        <v>460</v>
+      </c>
+      <c r="J40" t="s">
+        <v>461</v>
+      </c>
+      <c r="K40" t="s">
         <v>462</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="L40" t="s">
         <v>463</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="M40" s="2" t="s">
+      <c r="M40" t="s">
+        <v>463</v>
+      </c>
+      <c r="N40" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
+        <v>464</v>
+      </c>
+      <c r="D41" t="s">
+        <v>465</v>
+      </c>
+      <c r="E41" t="s">
+        <v>466</v>
+      </c>
+      <c r="F41" t="s">
+        <v>467</v>
+      </c>
+      <c r="G41" t="s">
+        <v>468</v>
+      </c>
+      <c r="H41" t="s">
+        <v>469</v>
+      </c>
+      <c r="I41" t="s">
+        <v>469</v>
+      </c>
+      <c r="J41" t="s">
+        <v>470</v>
+      </c>
+      <c r="K41" t="s">
         <v>471</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="L41" t="s">
         <v>472</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="J41" t="s">
-        <v>477</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="M41" s="2" t="s">
+      <c r="M41" t="s">
+        <v>472</v>
+      </c>
+      <c r="N41" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
+        <v>473</v>
+      </c>
+      <c r="D42" t="s">
+        <v>474</v>
+      </c>
+      <c r="E42" t="s">
+        <v>475</v>
+      </c>
+      <c r="F42" t="s">
+        <v>475</v>
+      </c>
+      <c r="G42" t="s">
+        <v>476</v>
+      </c>
+      <c r="H42" t="s">
+        <v>477</v>
+      </c>
+      <c r="I42" t="s">
+        <v>477</v>
+      </c>
+      <c r="J42" t="s">
+        <v>478</v>
+      </c>
+      <c r="K42" t="s">
+        <v>479</v>
+      </c>
+      <c r="L42" t="s">
         <v>480</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="M42" s="2" t="s">
+      <c r="M42" t="s">
+        <v>480</v>
+      </c>
+      <c r="N42" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
+        <v>481</v>
+      </c>
+      <c r="D43" t="s">
+        <v>482</v>
+      </c>
+      <c r="E43" t="s">
+        <v>483</v>
+      </c>
+      <c r="F43" t="s">
+        <v>483</v>
+      </c>
+      <c r="G43" t="s">
+        <v>484</v>
+      </c>
+      <c r="H43" t="s">
+        <v>485</v>
+      </c>
+      <c r="I43" t="s">
+        <v>485</v>
+      </c>
+      <c r="J43" t="s">
+        <v>486</v>
+      </c>
+      <c r="K43" t="s">
+        <v>487</v>
+      </c>
+      <c r="L43" t="s">
         <v>488</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="M43" s="2" t="s">
+      <c r="M43" t="s">
+        <v>488</v>
+      </c>
+      <c r="N43" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="M44" s="2" t="s">
+      <c r="D44" t="s">
+        <v>489</v>
+      </c>
+      <c r="E44" t="s">
+        <v>490</v>
+      </c>
+      <c r="F44" t="s">
+        <v>490</v>
+      </c>
+      <c r="G44" t="s">
+        <v>491</v>
+      </c>
+      <c r="H44" t="s">
+        <v>492</v>
+      </c>
+      <c r="I44" t="s">
+        <v>492</v>
+      </c>
+      <c r="J44" t="s">
+        <v>493</v>
+      </c>
+      <c r="K44" t="s">
+        <v>494</v>
+      </c>
+      <c r="L44" t="s">
+        <v>495</v>
+      </c>
+      <c r="M44" t="s">
+        <v>495</v>
+      </c>
+      <c r="N44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="M45" s="2" t="s">
+      <c r="D45" t="s">
+        <v>447</v>
+      </c>
+      <c r="E45" t="s">
+        <v>448</v>
+      </c>
+      <c r="F45" t="s">
+        <v>449</v>
+      </c>
+      <c r="G45" t="s">
+        <v>496</v>
+      </c>
+      <c r="H45" t="s">
+        <v>451</v>
+      </c>
+      <c r="I45" t="s">
+        <v>451</v>
+      </c>
+      <c r="J45" t="s">
+        <v>452</v>
+      </c>
+      <c r="K45" t="s">
+        <v>453</v>
+      </c>
+      <c r="L45" t="s">
+        <v>497</v>
+      </c>
+      <c r="M45" t="s">
+        <v>497</v>
+      </c>
+      <c r="N45" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s">
+        <v>498</v>
+      </c>
+      <c r="E46" t="s">
+        <v>499</v>
+      </c>
+      <c r="F46" t="s">
+        <v>500</v>
+      </c>
+      <c r="G46" t="s">
+        <v>501</v>
+      </c>
+      <c r="H46" t="s">
+        <v>502</v>
+      </c>
+      <c r="I46" t="s">
+        <v>502</v>
+      </c>
+      <c r="J46" t="s">
+        <v>503</v>
+      </c>
+      <c r="K46" t="s">
+        <v>504</v>
+      </c>
+      <c r="L46" t="s">
         <v>505</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="M46" s="2" t="s">
+      <c r="M46" t="s">
+        <v>505</v>
+      </c>
+      <c r="N46" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
+        <v>506</v>
+      </c>
+      <c r="D47" t="s">
+        <v>507</v>
+      </c>
+      <c r="E47" t="s">
+        <v>508</v>
+      </c>
+      <c r="F47" t="s">
+        <v>508</v>
+      </c>
+      <c r="G47" t="s">
+        <v>509</v>
+      </c>
+      <c r="H47" t="s">
+        <v>510</v>
+      </c>
+      <c r="I47" t="s">
+        <v>510</v>
+      </c>
+      <c r="J47" t="s">
+        <v>511</v>
+      </c>
+      <c r="K47" t="s">
+        <v>512</v>
+      </c>
+      <c r="L47" t="s">
         <v>513</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="M47" s="2" t="s">
+      <c r="M47" t="s">
+        <v>513</v>
+      </c>
+      <c r="N47" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="M48" s="2" t="s">
+      <c r="D48" t="s">
+        <v>514</v>
+      </c>
+      <c r="E48" t="s">
+        <v>515</v>
+      </c>
+      <c r="F48" t="s">
+        <v>515</v>
+      </c>
+      <c r="G48" t="s">
+        <v>516</v>
+      </c>
+      <c r="H48" t="s">
+        <v>517</v>
+      </c>
+      <c r="I48" t="s">
+        <v>517</v>
+      </c>
+      <c r="J48" t="s">
+        <v>518</v>
+      </c>
+      <c r="K48" t="s">
+        <v>519</v>
+      </c>
+      <c r="L48" t="s">
+        <v>520</v>
+      </c>
+      <c r="M48" t="s">
+        <v>520</v>
+      </c>
+      <c r="N48" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s">
+        <v>521</v>
+      </c>
+      <c r="D49" t="s">
+        <v>522</v>
+      </c>
+      <c r="E49" t="s">
+        <v>523</v>
+      </c>
+      <c r="F49" t="s">
+        <v>523</v>
+      </c>
+      <c r="G49" t="s">
+        <v>524</v>
+      </c>
+      <c r="H49" t="s">
+        <v>525</v>
+      </c>
+      <c r="I49" t="s">
+        <v>525</v>
+      </c>
+      <c r="J49" t="s">
+        <v>526</v>
+      </c>
+      <c r="K49" t="s">
+        <v>527</v>
+      </c>
+      <c r="L49" t="s">
         <v>528</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="M49" s="2" t="s">
+      <c r="M49" t="s">
+        <v>528</v>
+      </c>
+      <c r="N49" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="M50" s="2" t="s">
+      <c r="D50" t="s">
+        <v>529</v>
+      </c>
+      <c r="E50" t="s">
+        <v>530</v>
+      </c>
+      <c r="F50" t="s">
+        <v>530</v>
+      </c>
+      <c r="G50" t="s">
+        <v>531</v>
+      </c>
+      <c r="H50" t="s">
+        <v>532</v>
+      </c>
+      <c r="I50" t="s">
+        <v>532</v>
+      </c>
+      <c r="J50" t="s">
+        <v>533</v>
+      </c>
+      <c r="K50" t="s">
+        <v>534</v>
+      </c>
+      <c r="L50" t="s">
+        <v>535</v>
+      </c>
+      <c r="M50" t="s">
+        <v>535</v>
+      </c>
+      <c r="N50" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" t="s">
+        <v>536</v>
+      </c>
+      <c r="D51" t="s">
+        <v>537</v>
+      </c>
+      <c r="E51" t="s">
+        <v>538</v>
+      </c>
+      <c r="F51" t="s">
+        <v>538</v>
+      </c>
+      <c r="G51" t="s">
+        <v>539</v>
+      </c>
+      <c r="H51" t="s">
+        <v>540</v>
+      </c>
+      <c r="I51" t="s">
+        <v>540</v>
+      </c>
+      <c r="J51" t="s">
+        <v>541</v>
+      </c>
+      <c r="K51" t="s">
+        <v>542</v>
+      </c>
+      <c r="L51" t="s">
         <v>543</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="M51" s="2" t="s">
+      <c r="M51" t="s">
+        <v>543</v>
+      </c>
+      <c r="N51" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
+        <v>544</v>
+      </c>
+      <c r="C52" t="s">
+        <v>544</v>
+      </c>
+      <c r="D52" t="s">
+        <v>545</v>
+      </c>
+      <c r="E52" t="s">
+        <v>546</v>
+      </c>
+      <c r="F52" t="s">
+        <v>546</v>
+      </c>
+      <c r="G52" t="s">
+        <v>547</v>
+      </c>
+      <c r="H52" t="s">
+        <v>548</v>
+      </c>
+      <c r="I52" t="s">
+        <v>548</v>
+      </c>
+      <c r="J52" t="s">
+        <v>549</v>
+      </c>
+      <c r="K52" t="s">
+        <v>550</v>
+      </c>
+      <c r="L52" t="s">
         <v>551</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="M52" t="s">
         <v>551</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>544</v>
+      </c>
+      <c r="O52" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
+        <v>552</v>
+      </c>
+      <c r="D53" t="s">
+        <v>553</v>
+      </c>
+      <c r="E53" t="s">
+        <v>554</v>
+      </c>
+      <c r="F53" t="s">
+        <v>554</v>
+      </c>
+      <c r="G53" t="s">
+        <v>555</v>
+      </c>
+      <c r="H53" t="s">
+        <v>556</v>
+      </c>
+      <c r="I53" t="s">
+        <v>556</v>
+      </c>
+      <c r="J53" t="s">
+        <v>557</v>
+      </c>
+      <c r="K53" t="s">
+        <v>558</v>
+      </c>
+      <c r="L53" t="s">
         <v>559</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="M53" s="2" t="s">
+      <c r="M53" t="s">
+        <v>559</v>
+      </c>
+      <c r="N53" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
         <v>100</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="M54" s="2" t="s">
+      <c r="D54" t="s">
+        <v>560</v>
+      </c>
+      <c r="E54" t="s">
+        <v>561</v>
+      </c>
+      <c r="F54" t="s">
+        <v>561</v>
+      </c>
+      <c r="G54" t="s">
+        <v>562</v>
+      </c>
+      <c r="H54" t="s">
+        <v>563</v>
+      </c>
+      <c r="I54" t="s">
+        <v>563</v>
+      </c>
+      <c r="J54" t="s">
+        <v>564</v>
+      </c>
+      <c r="K54" t="s">
+        <v>565</v>
+      </c>
+      <c r="L54" t="s">
+        <v>566</v>
+      </c>
+      <c r="M54" t="s">
+        <v>566</v>
+      </c>
+      <c r="N54" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="B55" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D55" t="s">
         <v>240</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="E55" t="s">
+        <v>866</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="G55" t="s">
         <v>242</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>578</v>
+      <c r="H55" t="s">
+        <v>569</v>
+      </c>
+      <c r="I55" t="s">
+        <v>569</v>
+      </c>
+      <c r="J55" t="s">
+        <v>570</v>
+      </c>
+      <c r="K55" t="s">
+        <v>571</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
+        <v>574</v>
+      </c>
+      <c r="D56" t="s">
+        <v>575</v>
+      </c>
+      <c r="E56" t="s">
+        <v>576</v>
+      </c>
+      <c r="F56" t="s">
+        <v>577</v>
+      </c>
+      <c r="G56" t="s">
+        <v>578</v>
+      </c>
+      <c r="H56" t="s">
+        <v>579</v>
+      </c>
+      <c r="I56" t="s">
+        <v>579</v>
+      </c>
+      <c r="J56" t="s">
+        <v>580</v>
+      </c>
+      <c r="K56" t="s">
         <v>581</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="L56" t="s">
         <v>582</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="M56" s="2" t="s">
+      <c r="M56" t="s">
+        <v>582</v>
+      </c>
+      <c r="N56" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="M57" s="2" t="s">
+      <c r="D57" t="s">
+        <v>440</v>
+      </c>
+      <c r="E57" t="s">
+        <v>441</v>
+      </c>
+      <c r="F57" t="s">
+        <v>441</v>
+      </c>
+      <c r="G57" t="s">
+        <v>442</v>
+      </c>
+      <c r="H57" t="s">
+        <v>443</v>
+      </c>
+      <c r="I57" t="s">
+        <v>443</v>
+      </c>
+      <c r="J57" t="s">
+        <v>444</v>
+      </c>
+      <c r="K57" t="s">
+        <v>445</v>
+      </c>
+      <c r="L57" t="s">
+        <v>446</v>
+      </c>
+      <c r="M57" t="s">
+        <v>446</v>
+      </c>
+      <c r="N57" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
+        <v>583</v>
+      </c>
+      <c r="D58" t="s">
+        <v>584</v>
+      </c>
+      <c r="E58" t="s">
+        <v>585</v>
+      </c>
+      <c r="F58" t="s">
+        <v>585</v>
+      </c>
+      <c r="G58" t="s">
+        <v>586</v>
+      </c>
+      <c r="H58" t="s">
+        <v>587</v>
+      </c>
+      <c r="I58" t="s">
+        <v>587</v>
+      </c>
+      <c r="J58" t="s">
+        <v>588</v>
+      </c>
+      <c r="K58" t="s">
+        <v>589</v>
+      </c>
+      <c r="L58" t="s">
         <v>590</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="M58" s="2" t="s">
+      <c r="M58" t="s">
+        <v>590</v>
+      </c>
+      <c r="N58" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
+        <v>591</v>
+      </c>
+      <c r="D59" t="s">
+        <v>592</v>
+      </c>
+      <c r="E59" t="s">
+        <v>593</v>
+      </c>
+      <c r="F59" t="s">
+        <v>593</v>
+      </c>
+      <c r="G59" t="s">
+        <v>594</v>
+      </c>
+      <c r="H59" t="s">
+        <v>595</v>
+      </c>
+      <c r="I59" t="s">
+        <v>595</v>
+      </c>
+      <c r="J59" t="s">
+        <v>596</v>
+      </c>
+      <c r="K59" t="s">
+        <v>597</v>
+      </c>
+      <c r="L59" t="s">
         <v>598</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="M59" s="2" t="s">
+      <c r="M59" t="s">
+        <v>598</v>
+      </c>
+      <c r="N59" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>870</v>
+      </c>
+      <c r="C60" t="s">
+        <v>871</v>
+      </c>
+      <c r="D60" t="s">
+        <v>599</v>
+      </c>
+      <c r="E60" t="s">
+        <v>600</v>
+      </c>
+      <c r="F60" t="s">
+        <v>872</v>
+      </c>
+      <c r="G60" t="s">
+        <v>601</v>
+      </c>
+      <c r="H60" t="s">
+        <v>602</v>
+      </c>
+      <c r="I60" t="s">
+        <v>602</v>
+      </c>
+      <c r="J60" t="s">
+        <v>603</v>
+      </c>
+      <c r="K60" t="s">
+        <v>604</v>
+      </c>
+      <c r="L60" t="s">
+        <v>873</v>
+      </c>
+      <c r="M60" t="s">
+        <v>878</v>
+      </c>
+      <c r="N60" t="s">
+        <v>870</v>
+      </c>
+      <c r="O60" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="M61" s="2" t="s">
+      <c r="C61" t="s">
+        <v>605</v>
+      </c>
+      <c r="D61" t="s">
+        <v>606</v>
+      </c>
+      <c r="E61" t="s">
+        <v>607</v>
+      </c>
+      <c r="F61" t="s">
+        <v>607</v>
+      </c>
+      <c r="G61" t="s">
+        <v>608</v>
+      </c>
+      <c r="H61" t="s">
+        <v>609</v>
+      </c>
+      <c r="I61" t="s">
+        <v>609</v>
+      </c>
+      <c r="J61" t="s">
+        <v>610</v>
+      </c>
+      <c r="K61" t="s">
+        <v>611</v>
+      </c>
+      <c r="L61" t="s">
+        <v>612</v>
+      </c>
+      <c r="M61" t="s">
+        <v>612</v>
+      </c>
+      <c r="N61" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
         <v>113</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="M62" s="2" t="s">
+      <c r="C62" t="s">
+        <v>613</v>
+      </c>
+      <c r="D62" t="s">
+        <v>614</v>
+      </c>
+      <c r="E62" t="s">
+        <v>615</v>
+      </c>
+      <c r="F62" t="s">
+        <v>615</v>
+      </c>
+      <c r="G62" t="s">
+        <v>616</v>
+      </c>
+      <c r="H62" t="s">
+        <v>617</v>
+      </c>
+      <c r="I62" t="s">
+        <v>617</v>
+      </c>
+      <c r="J62" t="s">
+        <v>618</v>
+      </c>
+      <c r="K62" t="s">
+        <v>619</v>
+      </c>
+      <c r="L62" t="s">
+        <v>620</v>
+      </c>
+      <c r="M62" t="s">
+        <v>620</v>
+      </c>
+      <c r="N62" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>115</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="M63" s="2" t="s">
+      <c r="C63" t="s">
+        <v>621</v>
+      </c>
+      <c r="D63" t="s">
+        <v>622</v>
+      </c>
+      <c r="E63" t="s">
+        <v>623</v>
+      </c>
+      <c r="F63" t="s">
+        <v>623</v>
+      </c>
+      <c r="G63" t="s">
+        <v>624</v>
+      </c>
+      <c r="H63" t="s">
+        <v>625</v>
+      </c>
+      <c r="I63" t="s">
+        <v>625</v>
+      </c>
+      <c r="J63" t="s">
+        <v>626</v>
+      </c>
+      <c r="K63" t="s">
+        <v>627</v>
+      </c>
+      <c r="L63" t="s">
+        <v>628</v>
+      </c>
+      <c r="M63" t="s">
+        <v>628</v>
+      </c>
+      <c r="N63" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="M64" s="2" t="s">
+      <c r="D64" t="s">
+        <v>629</v>
+      </c>
+      <c r="E64" t="s">
+        <v>630</v>
+      </c>
+      <c r="F64" t="s">
+        <v>630</v>
+      </c>
+      <c r="G64" t="s">
+        <v>631</v>
+      </c>
+      <c r="H64" t="s">
+        <v>632</v>
+      </c>
+      <c r="I64" t="s">
+        <v>632</v>
+      </c>
+      <c r="J64" t="s">
+        <v>633</v>
+      </c>
+      <c r="K64" t="s">
+        <v>634</v>
+      </c>
+      <c r="L64" t="s">
+        <v>635</v>
+      </c>
+      <c r="M64" t="s">
+        <v>635</v>
+      </c>
+      <c r="N64" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>119</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="M65" s="2" t="s">
+      <c r="C65" t="s">
+        <v>636</v>
+      </c>
+      <c r="D65" t="s">
+        <v>637</v>
+      </c>
+      <c r="E65" t="s">
+        <v>638</v>
+      </c>
+      <c r="F65" t="s">
+        <v>638</v>
+      </c>
+      <c r="G65" t="s">
+        <v>639</v>
+      </c>
+      <c r="H65" t="s">
+        <v>640</v>
+      </c>
+      <c r="I65" t="s">
+        <v>640</v>
+      </c>
+      <c r="J65" t="s">
+        <v>641</v>
+      </c>
+      <c r="K65" t="s">
+        <v>642</v>
+      </c>
+      <c r="L65" t="s">
+        <v>643</v>
+      </c>
+      <c r="M65" t="s">
+        <v>643</v>
+      </c>
+      <c r="N65" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" t="s">
         <v>247</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" t="s">
         <v>248</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" t="s">
         <v>248</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" t="s">
         <v>249</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" t="s">
         <v>250</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" t="s">
         <v>250</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J66" t="s">
         <v>251</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="K66" t="s">
         <v>252</v>
       </c>
-      <c r="L66" s="3" t="s">
+      <c r="L66" t="s">
         <v>253</v>
       </c>
-      <c r="M66" s="2" t="s">
+      <c r="M66" t="s">
+        <v>253</v>
+      </c>
+      <c r="N66" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>122</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" t="s">
         <v>122</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="M67" s="2" t="s">
+      <c r="D67" t="s">
+        <v>644</v>
+      </c>
+      <c r="E67" t="s">
+        <v>645</v>
+      </c>
+      <c r="F67" t="s">
+        <v>645</v>
+      </c>
+      <c r="G67" t="s">
+        <v>646</v>
+      </c>
+      <c r="H67" t="s">
+        <v>647</v>
+      </c>
+      <c r="I67" t="s">
+        <v>647</v>
+      </c>
+      <c r="J67" t="s">
+        <v>648</v>
+      </c>
+      <c r="K67" t="s">
+        <v>649</v>
+      </c>
+      <c r="L67" t="s">
+        <v>650</v>
+      </c>
+      <c r="M67" t="s">
+        <v>650</v>
+      </c>
+      <c r="N67" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" t="s">
         <v>124</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="M68" s="2" t="s">
+      <c r="D68" t="s">
+        <v>651</v>
+      </c>
+      <c r="E68" t="s">
+        <v>652</v>
+      </c>
+      <c r="F68" t="s">
+        <v>652</v>
+      </c>
+      <c r="G68" t="s">
+        <v>653</v>
+      </c>
+      <c r="H68" t="s">
+        <v>654</v>
+      </c>
+      <c r="I68" t="s">
+        <v>654</v>
+      </c>
+      <c r="J68" t="s">
+        <v>655</v>
+      </c>
+      <c r="K68" t="s">
+        <v>656</v>
+      </c>
+      <c r="L68" t="s">
+        <v>657</v>
+      </c>
+      <c r="M68" t="s">
+        <v>657</v>
+      </c>
+      <c r="N68" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>126</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" t="s">
         <v>126</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="M69" s="2" t="s">
+      <c r="D69" t="s">
+        <v>658</v>
+      </c>
+      <c r="E69" t="s">
+        <v>659</v>
+      </c>
+      <c r="F69" t="s">
+        <v>659</v>
+      </c>
+      <c r="G69" t="s">
+        <v>660</v>
+      </c>
+      <c r="H69" t="s">
+        <v>661</v>
+      </c>
+      <c r="I69" t="s">
+        <v>661</v>
+      </c>
+      <c r="J69" t="s">
+        <v>662</v>
+      </c>
+      <c r="K69" t="s">
+        <v>663</v>
+      </c>
+      <c r="L69" t="s">
+        <v>664</v>
+      </c>
+      <c r="M69" t="s">
+        <v>664</v>
+      </c>
+      <c r="N69" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" t="s">
         <v>128</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="M70" s="2" t="s">
+      <c r="D70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E70" t="s">
+        <v>666</v>
+      </c>
+      <c r="F70" t="s">
+        <v>666</v>
+      </c>
+      <c r="G70" t="s">
+        <v>667</v>
+      </c>
+      <c r="H70" t="s">
+        <v>668</v>
+      </c>
+      <c r="I70" t="s">
+        <v>668</v>
+      </c>
+      <c r="J70" t="s">
+        <v>669</v>
+      </c>
+      <c r="K70" t="s">
+        <v>670</v>
+      </c>
+      <c r="L70" t="s">
+        <v>671</v>
+      </c>
+      <c r="M70" t="s">
+        <v>671</v>
+      </c>
+      <c r="N70" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" t="s">
         <v>130</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="M71" s="2" t="s">
+      <c r="D71" t="s">
+        <v>672</v>
+      </c>
+      <c r="E71" t="s">
+        <v>673</v>
+      </c>
+      <c r="F71" t="s">
+        <v>673</v>
+      </c>
+      <c r="G71" t="s">
+        <v>674</v>
+      </c>
+      <c r="H71" t="s">
+        <v>675</v>
+      </c>
+      <c r="I71" t="s">
+        <v>675</v>
+      </c>
+      <c r="J71" t="s">
+        <v>676</v>
+      </c>
+      <c r="K71" t="s">
+        <v>677</v>
+      </c>
+      <c r="L71" t="s">
+        <v>678</v>
+      </c>
+      <c r="M71" t="s">
+        <v>678</v>
+      </c>
+      <c r="N71" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>132</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="M72" s="2" t="s">
+      <c r="D72" t="s">
+        <v>679</v>
+      </c>
+      <c r="E72" t="s">
+        <v>680</v>
+      </c>
+      <c r="F72" t="s">
+        <v>680</v>
+      </c>
+      <c r="G72" t="s">
+        <v>681</v>
+      </c>
+      <c r="H72" t="s">
+        <v>682</v>
+      </c>
+      <c r="I72" t="s">
+        <v>682</v>
+      </c>
+      <c r="J72" t="s">
+        <v>683</v>
+      </c>
+      <c r="K72" t="s">
+        <v>684</v>
+      </c>
+      <c r="L72" t="s">
+        <v>685</v>
+      </c>
+      <c r="M72" t="s">
+        <v>685</v>
+      </c>
+      <c r="N72" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" t="s">
         <v>134</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" t="s">
         <v>255</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" t="s">
         <v>256</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="F73" t="s">
+        <v>686</v>
+      </c>
+      <c r="G73" t="s">
+        <v>687</v>
+      </c>
+      <c r="H73" t="s">
+        <v>688</v>
+      </c>
+      <c r="I73" t="s">
+        <v>688</v>
+      </c>
+      <c r="J73" t="s">
+        <v>689</v>
+      </c>
+      <c r="K73" t="s">
         <v>261</v>
       </c>
-      <c r="L73" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="M73" s="2" t="s">
+      <c r="L73" t="s">
+        <v>690</v>
+      </c>
+      <c r="M73" t="s">
+        <v>690</v>
+      </c>
+      <c r="N73" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" t="s">
         <v>136</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="M74" s="2" t="s">
+      <c r="D74" t="s">
+        <v>691</v>
+      </c>
+      <c r="E74" t="s">
+        <v>692</v>
+      </c>
+      <c r="F74" t="s">
+        <v>692</v>
+      </c>
+      <c r="G74" t="s">
+        <v>693</v>
+      </c>
+      <c r="H74" t="s">
+        <v>694</v>
+      </c>
+      <c r="I74" t="s">
+        <v>694</v>
+      </c>
+      <c r="J74" t="s">
+        <v>695</v>
+      </c>
+      <c r="K74" t="s">
+        <v>696</v>
+      </c>
+      <c r="L74" t="s">
+        <v>697</v>
+      </c>
+      <c r="M74" t="s">
+        <v>697</v>
+      </c>
+      <c r="N74" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="M75" s="2" t="s">
+      <c r="C75" t="s">
+        <v>698</v>
+      </c>
+      <c r="D75" t="s">
+        <v>699</v>
+      </c>
+      <c r="E75" t="s">
+        <v>700</v>
+      </c>
+      <c r="F75" t="s">
+        <v>700</v>
+      </c>
+      <c r="G75" t="s">
+        <v>701</v>
+      </c>
+      <c r="H75" t="s">
+        <v>702</v>
+      </c>
+      <c r="I75" t="s">
+        <v>702</v>
+      </c>
+      <c r="J75" t="s">
+        <v>703</v>
+      </c>
+      <c r="K75" t="s">
+        <v>704</v>
+      </c>
+      <c r="L75" t="s">
+        <v>705</v>
+      </c>
+      <c r="M75" t="s">
+        <v>705</v>
+      </c>
+      <c r="N75" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="M76" s="2" t="s">
+      <c r="C76" t="s">
+        <v>706</v>
+      </c>
+      <c r="D76" t="s">
+        <v>707</v>
+      </c>
+      <c r="E76" t="s">
+        <v>708</v>
+      </c>
+      <c r="F76" t="s">
+        <v>708</v>
+      </c>
+      <c r="G76" t="s">
+        <v>709</v>
+      </c>
+      <c r="H76" t="s">
+        <v>710</v>
+      </c>
+      <c r="I76" t="s">
+        <v>710</v>
+      </c>
+      <c r="J76" t="s">
+        <v>711</v>
+      </c>
+      <c r="K76" t="s">
+        <v>712</v>
+      </c>
+      <c r="L76" t="s">
+        <v>713</v>
+      </c>
+      <c r="M76" t="s">
+        <v>713</v>
+      </c>
+      <c r="N76" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O76" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>142</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="M77" s="2" t="s">
+      <c r="C77" t="s">
+        <v>714</v>
+      </c>
+      <c r="D77" t="s">
+        <v>715</v>
+      </c>
+      <c r="E77" t="s">
+        <v>716</v>
+      </c>
+      <c r="F77" t="s">
+        <v>716</v>
+      </c>
+      <c r="G77" t="s">
+        <v>717</v>
+      </c>
+      <c r="H77" t="s">
+        <v>718</v>
+      </c>
+      <c r="I77" t="s">
+        <v>718</v>
+      </c>
+      <c r="J77" t="s">
+        <v>719</v>
+      </c>
+      <c r="K77" t="s">
+        <v>720</v>
+      </c>
+      <c r="L77" t="s">
+        <v>721</v>
+      </c>
+      <c r="M77" t="s">
+        <v>721</v>
+      </c>
+      <c r="N77" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>144</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" t="s">
         <v>144</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="D78" t="s">
+        <v>722</v>
+      </c>
+      <c r="E78" t="s">
         <v>264</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" t="s">
         <v>264</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="M78" s="2" t="s">
+      <c r="G78" t="s">
+        <v>723</v>
+      </c>
+      <c r="H78" t="s">
+        <v>724</v>
+      </c>
+      <c r="I78" t="s">
+        <v>724</v>
+      </c>
+      <c r="J78" t="s">
+        <v>725</v>
+      </c>
+      <c r="K78" t="s">
+        <v>726</v>
+      </c>
+      <c r="L78" t="s">
+        <v>727</v>
+      </c>
+      <c r="M78" t="s">
+        <v>727</v>
+      </c>
+      <c r="N78" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O78" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>146</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="M79" s="2" t="s">
+      <c r="D79" t="s">
+        <v>728</v>
+      </c>
+      <c r="E79" t="s">
+        <v>729</v>
+      </c>
+      <c r="F79" t="s">
+        <v>729</v>
+      </c>
+      <c r="G79" t="s">
+        <v>730</v>
+      </c>
+      <c r="H79" t="s">
+        <v>731</v>
+      </c>
+      <c r="I79" t="s">
+        <v>731</v>
+      </c>
+      <c r="J79" t="s">
+        <v>732</v>
+      </c>
+      <c r="K79" t="s">
+        <v>733</v>
+      </c>
+      <c r="L79" t="s">
+        <v>734</v>
+      </c>
+      <c r="M79" t="s">
+        <v>734</v>
+      </c>
+      <c r="N79" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O79" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>752</v>
+      <c r="B80" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>741</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s">
         <v>149</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="M81" s="2" t="s">
+      <c r="C81" t="s">
+        <v>743</v>
+      </c>
+      <c r="D81" t="s">
+        <v>744</v>
+      </c>
+      <c r="E81" t="s">
+        <v>745</v>
+      </c>
+      <c r="F81" t="s">
+        <v>745</v>
+      </c>
+      <c r="G81" t="s">
+        <v>746</v>
+      </c>
+      <c r="H81" t="s">
+        <v>747</v>
+      </c>
+      <c r="I81" t="s">
+        <v>747</v>
+      </c>
+      <c r="J81" t="s">
+        <v>748</v>
+      </c>
+      <c r="K81" t="s">
+        <v>749</v>
+      </c>
+      <c r="L81" t="s">
+        <v>750</v>
+      </c>
+      <c r="M81" t="s">
+        <v>750</v>
+      </c>
+      <c r="N81" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O81" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>151</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="M82" s="2" t="s">
+      <c r="C82" t="s">
+        <v>751</v>
+      </c>
+      <c r="D82" t="s">
+        <v>752</v>
+      </c>
+      <c r="E82" t="s">
+        <v>753</v>
+      </c>
+      <c r="F82" t="s">
+        <v>753</v>
+      </c>
+      <c r="G82" t="s">
+        <v>754</v>
+      </c>
+      <c r="H82" t="s">
+        <v>755</v>
+      </c>
+      <c r="I82" t="s">
+        <v>755</v>
+      </c>
+      <c r="J82" t="s">
+        <v>756</v>
+      </c>
+      <c r="K82" t="s">
+        <v>757</v>
+      </c>
+      <c r="L82" t="s">
+        <v>758</v>
+      </c>
+      <c r="M82" t="s">
+        <v>874</v>
+      </c>
+      <c r="N82" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O82" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" t="s">
         <v>153</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="M83" s="2" t="s">
+      <c r="D83" t="s">
+        <v>759</v>
+      </c>
+      <c r="E83" t="s">
+        <v>760</v>
+      </c>
+      <c r="F83" t="s">
+        <v>760</v>
+      </c>
+      <c r="G83" t="s">
+        <v>761</v>
+      </c>
+      <c r="H83" t="s">
+        <v>762</v>
+      </c>
+      <c r="I83" t="s">
+        <v>762</v>
+      </c>
+      <c r="J83" t="s">
+        <v>763</v>
+      </c>
+      <c r="K83" t="s">
+        <v>764</v>
+      </c>
+      <c r="L83" t="s">
+        <v>765</v>
+      </c>
+      <c r="M83" t="s">
+        <v>765</v>
+      </c>
+      <c r="N83" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O83" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
         <v>155</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="M84" s="2" t="s">
+      <c r="C84" t="s">
+        <v>766</v>
+      </c>
+      <c r="D84" t="s">
+        <v>767</v>
+      </c>
+      <c r="E84" t="s">
+        <v>768</v>
+      </c>
+      <c r="F84" t="s">
+        <v>769</v>
+      </c>
+      <c r="G84" t="s">
+        <v>770</v>
+      </c>
+      <c r="H84" t="s">
+        <v>771</v>
+      </c>
+      <c r="I84" t="s">
+        <v>771</v>
+      </c>
+      <c r="J84" t="s">
+        <v>772</v>
+      </c>
+      <c r="K84" t="s">
+        <v>773</v>
+      </c>
+      <c r="L84" t="s">
+        <v>774</v>
+      </c>
+      <c r="M84" t="s">
+        <v>774</v>
+      </c>
+      <c r="N84" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" t="s">
         <v>157</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="M85" s="2" t="s">
+      <c r="D85" t="s">
+        <v>775</v>
+      </c>
+      <c r="E85" t="s">
+        <v>776</v>
+      </c>
+      <c r="F85" t="s">
+        <v>777</v>
+      </c>
+      <c r="G85" t="s">
+        <v>778</v>
+      </c>
+      <c r="H85" t="s">
+        <v>779</v>
+      </c>
+      <c r="I85" t="s">
+        <v>779</v>
+      </c>
+      <c r="J85" t="s">
+        <v>780</v>
+      </c>
+      <c r="K85" t="s">
+        <v>781</v>
+      </c>
+      <c r="L85" t="s">
+        <v>782</v>
+      </c>
+      <c r="M85" t="s">
+        <v>782</v>
+      </c>
+      <c r="N85" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s">
         <v>159</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" t="s">
         <v>159</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="M86" s="2" t="s">
+      <c r="D86" t="s">
+        <v>783</v>
+      </c>
+      <c r="E86" t="s">
+        <v>784</v>
+      </c>
+      <c r="F86" t="s">
+        <v>785</v>
+      </c>
+      <c r="G86" t="s">
+        <v>786</v>
+      </c>
+      <c r="H86" t="s">
+        <v>787</v>
+      </c>
+      <c r="I86" t="s">
+        <v>787</v>
+      </c>
+      <c r="J86" t="s">
+        <v>788</v>
+      </c>
+      <c r="K86" t="s">
+        <v>789</v>
+      </c>
+      <c r="L86" t="s">
+        <v>790</v>
+      </c>
+      <c r="M86" t="s">
+        <v>790</v>
+      </c>
+      <c r="N86" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" t="s">
         <v>161</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" t="s">
         <v>161</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="M87" s="2" t="s">
+      <c r="D87" t="s">
+        <v>791</v>
+      </c>
+      <c r="E87" t="s">
+        <v>792</v>
+      </c>
+      <c r="F87" t="s">
+        <v>792</v>
+      </c>
+      <c r="G87" t="s">
+        <v>793</v>
+      </c>
+      <c r="H87" t="s">
+        <v>794</v>
+      </c>
+      <c r="I87" t="s">
+        <v>794</v>
+      </c>
+      <c r="J87" t="s">
+        <v>795</v>
+      </c>
+      <c r="K87" t="s">
+        <v>796</v>
+      </c>
+      <c r="L87" t="s">
+        <v>797</v>
+      </c>
+      <c r="M87" t="s">
+        <v>797</v>
+      </c>
+      <c r="N87" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O87" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" t="s">
         <v>163</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" t="s">
         <v>163</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="M88" s="2" t="s">
+      <c r="D88" t="s">
+        <v>798</v>
+      </c>
+      <c r="E88" t="s">
+        <v>799</v>
+      </c>
+      <c r="F88" t="s">
+        <v>799</v>
+      </c>
+      <c r="G88" t="s">
+        <v>800</v>
+      </c>
+      <c r="H88" t="s">
+        <v>801</v>
+      </c>
+      <c r="I88" t="s">
+        <v>801</v>
+      </c>
+      <c r="J88" t="s">
+        <v>802</v>
+      </c>
+      <c r="K88" t="s">
+        <v>803</v>
+      </c>
+      <c r="L88" t="s">
+        <v>804</v>
+      </c>
+      <c r="M88" t="s">
+        <v>804</v>
+      </c>
+      <c r="N88" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O88" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" t="s">
         <v>165</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" t="s">
         <v>165</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="M89" s="2" t="s">
+      <c r="D89" t="s">
+        <v>805</v>
+      </c>
+      <c r="E89" t="s">
+        <v>806</v>
+      </c>
+      <c r="F89" t="s">
+        <v>806</v>
+      </c>
+      <c r="G89" t="s">
+        <v>807</v>
+      </c>
+      <c r="H89" t="s">
+        <v>808</v>
+      </c>
+      <c r="I89" t="s">
+        <v>808</v>
+      </c>
+      <c r="J89" t="s">
+        <v>809</v>
+      </c>
+      <c r="K89" t="s">
+        <v>810</v>
+      </c>
+      <c r="L89" t="s">
+        <v>811</v>
+      </c>
+      <c r="M89" t="s">
+        <v>811</v>
+      </c>
+      <c r="N89" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O89" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>752</v>
+      <c r="B90" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>741</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" t="s">
         <v>168</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="M91" s="2" t="s">
+      <c r="C91" t="s">
+        <v>812</v>
+      </c>
+      <c r="D91" t="s">
+        <v>813</v>
+      </c>
+      <c r="E91" t="s">
+        <v>814</v>
+      </c>
+      <c r="F91" t="s">
+        <v>815</v>
+      </c>
+      <c r="G91" t="s">
+        <v>816</v>
+      </c>
+      <c r="H91" t="s">
+        <v>817</v>
+      </c>
+      <c r="I91" t="s">
+        <v>817</v>
+      </c>
+      <c r="J91" t="s">
+        <v>818</v>
+      </c>
+      <c r="K91" t="s">
+        <v>819</v>
+      </c>
+      <c r="L91" t="s">
+        <v>820</v>
+      </c>
+      <c r="M91" t="s">
+        <v>820</v>
+      </c>
+      <c r="N91" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O91" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>821</v>
+      </c>
+      <c r="C92" t="s">
+        <v>822</v>
+      </c>
+      <c r="D92" t="s">
+        <v>823</v>
+      </c>
+      <c r="E92" t="s">
+        <v>824</v>
+      </c>
+      <c r="F92" t="s">
+        <v>825</v>
+      </c>
+      <c r="G92" t="s">
+        <v>826</v>
+      </c>
+      <c r="H92" t="s">
+        <v>827</v>
+      </c>
+      <c r="I92" t="s">
+        <v>827</v>
+      </c>
+      <c r="J92" t="s">
+        <v>828</v>
+      </c>
+      <c r="K92" t="s">
+        <v>829</v>
+      </c>
+      <c r="L92" t="s">
+        <v>830</v>
+      </c>
+      <c r="M92" t="s">
+        <v>830</v>
+      </c>
+      <c r="N92" t="s">
+        <v>821</v>
+      </c>
+      <c r="O92" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" t="s">
         <v>171</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="M93" s="2" t="s">
+      <c r="C93" t="s">
+        <v>831</v>
+      </c>
+      <c r="D93" t="s">
+        <v>832</v>
+      </c>
+      <c r="E93" t="s">
+        <v>833</v>
+      </c>
+      <c r="F93" t="s">
+        <v>834</v>
+      </c>
+      <c r="G93" t="s">
+        <v>835</v>
+      </c>
+      <c r="H93" t="s">
+        <v>836</v>
+      </c>
+      <c r="I93" t="s">
+        <v>836</v>
+      </c>
+      <c r="J93" t="s">
+        <v>837</v>
+      </c>
+      <c r="K93" t="s">
+        <v>838</v>
+      </c>
+      <c r="L93" t="s">
+        <v>839</v>
+      </c>
+      <c r="M93" t="s">
+        <v>839</v>
+      </c>
+      <c r="N93" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O93" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" t="s">
         <v>173</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" t="s">
         <v>173</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="M94" s="2" t="s">
+      <c r="D94" t="s">
+        <v>840</v>
+      </c>
+      <c r="E94" t="s">
+        <v>841</v>
+      </c>
+      <c r="F94" t="s">
+        <v>842</v>
+      </c>
+      <c r="G94" t="s">
+        <v>843</v>
+      </c>
+      <c r="H94" t="s">
+        <v>844</v>
+      </c>
+      <c r="I94" t="s">
+        <v>844</v>
+      </c>
+      <c r="J94" t="s">
+        <v>845</v>
+      </c>
+      <c r="K94" t="s">
+        <v>846</v>
+      </c>
+      <c r="L94" t="s">
+        <v>847</v>
+      </c>
+      <c r="M94" t="s">
+        <v>847</v>
+      </c>
+      <c r="N94" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O94" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" t="s">
         <v>175</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="L95" s="5" t="s">
-        <v>866</v>
-      </c>
-      <c r="M95" s="4" t="s">
+      <c r="C95" t="s">
+        <v>848</v>
+      </c>
+      <c r="D95" t="s">
+        <v>849</v>
+      </c>
+      <c r="E95" t="s">
+        <v>850</v>
+      </c>
+      <c r="F95" t="s">
+        <v>850</v>
+      </c>
+      <c r="G95" t="s">
+        <v>851</v>
+      </c>
+      <c r="H95" t="s">
+        <v>852</v>
+      </c>
+      <c r="I95" t="s">
+        <v>852</v>
+      </c>
+      <c r="J95" t="s">
+        <v>853</v>
+      </c>
+      <c r="K95" t="s">
+        <v>854</v>
+      </c>
+      <c r="L95" t="s">
+        <v>855</v>
+      </c>
+      <c r="M95" t="s">
+        <v>855</v>
+      </c>
+      <c r="N95" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O95" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" t="s">
         <v>177</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="M96" s="2" t="s">
+      <c r="C96" t="s">
+        <v>856</v>
+      </c>
+      <c r="D96" t="s">
+        <v>857</v>
+      </c>
+      <c r="E96" t="s">
+        <v>858</v>
+      </c>
+      <c r="F96" t="s">
+        <v>859</v>
+      </c>
+      <c r="G96" t="s">
+        <v>860</v>
+      </c>
+      <c r="H96" t="s">
+        <v>861</v>
+      </c>
+      <c r="I96" t="s">
+        <v>861</v>
+      </c>
+      <c r="J96" t="s">
+        <v>862</v>
+      </c>
+      <c r="K96" t="s">
+        <v>863</v>
+      </c>
+      <c r="L96" t="s">
+        <v>864</v>
+      </c>
+      <c r="M96" t="s">
+        <v>864</v>
+      </c>
+      <c r="N96" t="s">
+        <v>177</v>
+      </c>
+      <c r="O96" t="s">
         <v>177</v>
       </c>
     </row>
